--- a/templates/parties.xlsx
+++ b/templates/parties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a-0/Engineering/ipsl/esdoc/repos/cordex/cordexp/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a-0/Engineering/ipsl/esdoc/repos/cordex/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC951CD-5C9F-FE44-9388-FCB246DA8B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F86EA-B39C-9B41-A7C0-F41AA0107505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="25320" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="25320" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>How To Use</t>
   </si>
@@ -36,9 +36,6 @@
       </rPr>
       <t>https://es-doc.org/how-to-use-model-responsible-party-spreadsheets</t>
     </r>
-  </si>
-  <si>
-    <t>CMIP6 Model Responsible Parties</t>
   </si>
   <si>
     <t>Identifier *</t>
@@ -136,10 +133,10 @@
     <t>ORCID ID</t>
   </si>
   <si>
-    <t>ES-DOC CORDEXP Responsible Parties</t>
+    <t>ES-DOC CORDEX Responsible Parties</t>
   </si>
   <si>
-    <t>CORDEXP Model Responsible Parties</t>
+    <t>CORDEX Model Responsible Parties</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1686,7 @@
   <dimension ref="A1:IV9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1702,7 +1699,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1788,9 +1785,7 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1806,7 +1801,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1817,68 +1812,68 @@
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="25" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="29" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="F4" s="28" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="28"/>
     </row>
@@ -2134,7 +2129,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -2145,25 +2140,25 @@
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
